--- a/medicine/Psychotrope/Cafés_Excella/Cafés_Excella.xlsx
+++ b/medicine/Psychotrope/Cafés_Excella/Cafés_Excella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9s_Excella</t>
+          <t>Cafés_Excella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cafés Excella était une société française créée en 1905 et spécialisée dans la torréfaction du café.  
-Depuis son rachat en 1996, elle est la filiale française du groupe Suisse Drie Mollen devenu United Coffee[2]. 
-La société Excella a été radiée du registre du commerce et des sociétés le 26 janvier 2015, son dernier siège social était à Valence 83 Allée Bernard Palissy[3].  
+Depuis son rachat en 1996, elle est la filiale française du groupe Suisse Drie Mollen devenu United Coffee. 
+La société Excella a été radiée du registre du commerce et des sociétés le 26 janvier 2015, son dernier siège social était à Valence 83 Allée Bernard Palissy.  
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9s_Excella</t>
+          <t>Cafés_Excella</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir longtemps distribué du café sous sa propre marque, la société est désormais spécialisée dans la torréfaction de café destiné aux marques de distributeurs. 
 La société était notamment basée à Barjouville avec un entrepôt à Lempdes (où se trouvait son site historique et son usine principale). 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9s_Excella</t>
+          <t>Cafés_Excella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société était  labellisée par l'organisme Max Havelaar pour la commercialisation de café issu du commerce équitable[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société était  labellisée par l'organisme Max Havelaar pour la commercialisation de café issu du commerce équitable. 
 </t>
         </is>
       </c>
